--- a/workforce_plot_data/SC Report WF Charts_All.xlsx
+++ b/workforce_plot_data/SC Report WF Charts_All.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel.sharepoint.com/sites/Offshoresupplychainanalysis/Shared Documents/General/Workforce, regionality/Charts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\workforce_plot_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="8_{257DDBDF-DC09-44B7-A63B-0EF9E47AE1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B08F2A9-77BD-4C02-8D1D-667EBDDD8476}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DB450C-42F8-4D2B-8C45-2DA786AF5DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{494438DD-705D-498A-9699-0C05F50B900C}"/>
+    <workbookView minimized="1" xWindow="15" yWindow="0" windowWidth="19185" windowHeight="10200" firstSheet="2" activeTab="4" xr2:uid="{494438DD-705D-498A-9699-0C05F50B900C}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure ES-7" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,6 @@
   <externalReferences>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
-    <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -386,8 +385,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -429,9 +428,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22117,9 +22116,6 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="K9" t="str">
-            <v>Blade</v>
-          </cell>
           <cell r="L9">
             <v>0</v>
           </cell>
@@ -22170,9 +22166,6 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="K10" t="str">
-            <v>Nacelle</v>
-          </cell>
           <cell r="L10">
             <v>0</v>
           </cell>
@@ -22223,9 +22216,6 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="K11" t="str">
-            <v>Tower</v>
-          </cell>
           <cell r="L11">
             <v>0</v>
           </cell>
@@ -22276,9 +22266,6 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="K12" t="str">
-            <v>Monopile</v>
-          </cell>
           <cell r="L12">
             <v>0</v>
           </cell>
@@ -22329,9 +22316,6 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="K13" t="str">
-            <v>Jacket</v>
-          </cell>
           <cell r="L13">
             <v>0</v>
           </cell>
@@ -22382,9 +22366,6 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="K14" t="str">
-            <v>GBF</v>
-          </cell>
           <cell r="L14">
             <v>0</v>
           </cell>
@@ -22435,9 +22416,6 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="K15" t="str">
-            <v>Transition piece</v>
-          </cell>
           <cell r="L15">
             <v>0</v>
           </cell>
@@ -22488,9 +22466,6 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="K16" t="str">
-            <v>Array cable</v>
-          </cell>
           <cell r="L16">
             <v>0</v>
           </cell>
@@ -22541,9 +22516,6 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="K17" t="str">
-            <v>Export cable</v>
-          </cell>
           <cell r="L17">
             <v>235.4</v>
           </cell>
@@ -22594,9 +22566,6 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="K18" t="str">
-            <v>Steel plates</v>
-          </cell>
           <cell r="L18">
             <v>0</v>
           </cell>
@@ -22647,9 +22616,6 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="K19" t="str">
-            <v>Casting</v>
-          </cell>
           <cell r="L19">
             <v>0</v>
           </cell>
@@ -22700,9 +22666,6 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="K20" t="str">
-            <v>Flange</v>
-          </cell>
           <cell r="L20">
             <v>0</v>
           </cell>
@@ -22753,9 +22716,6 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="K21" t="str">
-            <v>Semisubmersible</v>
-          </cell>
           <cell r="L21">
             <v>0</v>
           </cell>
@@ -22806,9 +22766,6 @@
           </cell>
         </row>
         <row r="22">
-          <cell r="K22" t="str">
-            <v>Mooring chain</v>
-          </cell>
           <cell r="L22">
             <v>0</v>
           </cell>
@@ -22859,9 +22816,6 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="K23" t="str">
-            <v>Mooring rope</v>
-          </cell>
           <cell r="L23">
             <v>0</v>
           </cell>
@@ -22967,56 +22921,8 @@
           <cell r="L8">
             <v>2020</v>
           </cell>
-          <cell r="M8">
-            <v>2021</v>
-          </cell>
-          <cell r="N8">
-            <v>2022</v>
-          </cell>
-          <cell r="O8">
-            <v>2023</v>
-          </cell>
-          <cell r="P8">
-            <v>2024</v>
-          </cell>
-          <cell r="Q8">
-            <v>2025</v>
-          </cell>
-          <cell r="R8">
-            <v>2026</v>
-          </cell>
-          <cell r="S8">
-            <v>2027</v>
-          </cell>
-          <cell r="T8">
-            <v>2028</v>
-          </cell>
-          <cell r="U8">
-            <v>2029</v>
-          </cell>
-          <cell r="V8">
-            <v>2030</v>
-          </cell>
-          <cell r="W8">
-            <v>2031</v>
-          </cell>
-          <cell r="X8">
-            <v>2032</v>
-          </cell>
-          <cell r="Y8">
-            <v>2033</v>
-          </cell>
-          <cell r="Z8">
-            <v>2034</v>
-          </cell>
-          <cell r="AA8">
-            <v>2035</v>
-          </cell>
         </row>
         <row r="9">
-          <cell r="K9" t="str">
-            <v>Blade</v>
-          </cell>
           <cell r="L9">
             <v>0</v>
           </cell>
@@ -23067,9 +22973,6 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="K10" t="str">
-            <v>Nacelle</v>
-          </cell>
           <cell r="L10">
             <v>0</v>
           </cell>
@@ -23120,9 +23023,6 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="K11" t="str">
-            <v>Tower</v>
-          </cell>
           <cell r="L11">
             <v>0</v>
           </cell>
@@ -23173,9 +23073,6 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="K12" t="str">
-            <v>Monopile</v>
-          </cell>
           <cell r="L12">
             <v>0</v>
           </cell>
@@ -23226,9 +23123,6 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="K13" t="str">
-            <v>Jacket</v>
-          </cell>
           <cell r="L13">
             <v>0</v>
           </cell>
@@ -23279,9 +23173,6 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="K14" t="str">
-            <v>GBF</v>
-          </cell>
           <cell r="L14">
             <v>0</v>
           </cell>
@@ -23332,9 +23223,6 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="K15" t="str">
-            <v>Transition piece</v>
-          </cell>
           <cell r="L15">
             <v>0</v>
           </cell>
@@ -23385,9 +23273,6 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="K16" t="str">
-            <v>Array cable</v>
-          </cell>
           <cell r="L16">
             <v>0</v>
           </cell>
@@ -23438,9 +23323,6 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="K17" t="str">
-            <v>Export cable</v>
-          </cell>
           <cell r="L17">
             <v>235.4</v>
           </cell>
@@ -23491,9 +23373,6 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="K18" t="str">
-            <v>Steel plates</v>
-          </cell>
           <cell r="L18">
             <v>0</v>
           </cell>
@@ -23544,9 +23423,6 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="K19" t="str">
-            <v>Casting</v>
-          </cell>
           <cell r="L19">
             <v>0</v>
           </cell>
@@ -23597,9 +23473,6 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="K20" t="str">
-            <v>Flange</v>
-          </cell>
           <cell r="L20">
             <v>0</v>
           </cell>
@@ -23650,9 +23523,6 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="K21" t="str">
-            <v>Semisubmersible</v>
-          </cell>
           <cell r="L21">
             <v>0</v>
           </cell>
@@ -23703,9 +23573,6 @@
           </cell>
         </row>
         <row r="22">
-          <cell r="K22" t="str">
-            <v>Mooring Chain</v>
-          </cell>
           <cell r="L22">
             <v>0</v>
           </cell>
@@ -23756,9 +23623,6 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="K23" t="str">
-            <v>Mooring Rope</v>
-          </cell>
           <cell r="L23">
             <v>0</v>
           </cell>
@@ -23864,56 +23728,8 @@
           <cell r="L4">
             <v>2020</v>
           </cell>
-          <cell r="M4">
-            <v>2021</v>
-          </cell>
-          <cell r="N4">
-            <v>2022</v>
-          </cell>
-          <cell r="O4">
-            <v>2023</v>
-          </cell>
-          <cell r="P4">
-            <v>2024</v>
-          </cell>
-          <cell r="Q4">
-            <v>2025</v>
-          </cell>
-          <cell r="R4">
-            <v>2026</v>
-          </cell>
-          <cell r="S4">
-            <v>2027</v>
-          </cell>
-          <cell r="T4">
-            <v>2028</v>
-          </cell>
-          <cell r="U4">
-            <v>2029</v>
-          </cell>
-          <cell r="V4">
-            <v>2030</v>
-          </cell>
-          <cell r="W4">
-            <v>2031</v>
-          </cell>
-          <cell r="X4">
-            <v>2032</v>
-          </cell>
-          <cell r="Y4">
-            <v>2033</v>
-          </cell>
-          <cell r="Z4">
-            <v>2034</v>
-          </cell>
-          <cell r="AA4">
-            <v>2035</v>
-          </cell>
         </row>
         <row r="5">
-          <cell r="K5" t="str">
-            <v>Blade</v>
-          </cell>
           <cell r="L5">
             <v>0</v>
           </cell>
@@ -23964,9 +23780,6 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="K6" t="str">
-            <v>Nacelle</v>
-          </cell>
           <cell r="L6">
             <v>0</v>
           </cell>
@@ -24017,9 +23830,6 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="K7" t="str">
-            <v>Tower</v>
-          </cell>
           <cell r="L7">
             <v>0</v>
           </cell>
@@ -24070,9 +23880,6 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="K8" t="str">
-            <v>Monopile</v>
-          </cell>
           <cell r="L8">
             <v>0</v>
           </cell>
@@ -24123,9 +23930,6 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="K9" t="str">
-            <v>Jacket</v>
-          </cell>
           <cell r="L9">
             <v>0</v>
           </cell>
@@ -24176,9 +23980,6 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="K10" t="str">
-            <v>GBF</v>
-          </cell>
           <cell r="L10">
             <v>0</v>
           </cell>
@@ -24229,9 +24030,6 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="K11" t="str">
-            <v>Transition piece</v>
-          </cell>
           <cell r="L11">
             <v>0</v>
           </cell>
@@ -24282,9 +24080,6 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="K12" t="str">
-            <v>Array cable</v>
-          </cell>
           <cell r="L12">
             <v>0</v>
           </cell>
@@ -24335,9 +24130,6 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="K13" t="str">
-            <v>Export cable</v>
-          </cell>
           <cell r="L13">
             <v>0</v>
           </cell>
@@ -24388,9 +24180,6 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="K14" t="str">
-            <v>Steel plates</v>
-          </cell>
           <cell r="L14">
             <v>0</v>
           </cell>
@@ -24441,9 +24230,6 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="K15" t="str">
-            <v>Casting</v>
-          </cell>
           <cell r="L15">
             <v>0</v>
           </cell>
@@ -24494,9 +24280,6 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="K16" t="str">
-            <v>Flange</v>
-          </cell>
           <cell r="L16">
             <v>0</v>
           </cell>
@@ -24547,9 +24330,6 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="K17" t="str">
-            <v>Semisubmersible</v>
-          </cell>
           <cell r="L17">
             <v>0</v>
           </cell>
@@ -24600,9 +24380,6 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="K18" t="str">
-            <v>Mooring System</v>
-          </cell>
           <cell r="L18">
             <v>0</v>
           </cell>
@@ -24708,56 +24485,8 @@
           <cell r="L4">
             <v>2020</v>
           </cell>
-          <cell r="M4">
-            <v>2021</v>
-          </cell>
-          <cell r="N4">
-            <v>2022</v>
-          </cell>
-          <cell r="O4">
-            <v>2023</v>
-          </cell>
-          <cell r="P4">
-            <v>2024</v>
-          </cell>
-          <cell r="Q4">
-            <v>2025</v>
-          </cell>
-          <cell r="R4">
-            <v>2026</v>
-          </cell>
-          <cell r="S4">
-            <v>2027</v>
-          </cell>
-          <cell r="T4">
-            <v>2028</v>
-          </cell>
-          <cell r="U4">
-            <v>2029</v>
-          </cell>
-          <cell r="V4">
-            <v>2030</v>
-          </cell>
-          <cell r="W4">
-            <v>2031</v>
-          </cell>
-          <cell r="X4">
-            <v>2032</v>
-          </cell>
-          <cell r="Y4">
-            <v>2033</v>
-          </cell>
-          <cell r="Z4">
-            <v>2034</v>
-          </cell>
-          <cell r="AA4">
-            <v>2035</v>
-          </cell>
         </row>
         <row r="5">
-          <cell r="K5" t="str">
-            <v>Blade</v>
-          </cell>
           <cell r="L5">
             <v>0</v>
           </cell>
@@ -24808,9 +24537,6 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="K6" t="str">
-            <v>Nacelle</v>
-          </cell>
           <cell r="L6">
             <v>0</v>
           </cell>
@@ -24861,9 +24587,6 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="K7" t="str">
-            <v>Tower</v>
-          </cell>
           <cell r="L7">
             <v>0</v>
           </cell>
@@ -24914,9 +24637,6 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="K8" t="str">
-            <v>Monopile</v>
-          </cell>
           <cell r="L8">
             <v>0</v>
           </cell>
@@ -24967,9 +24687,6 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="K9" t="str">
-            <v>Jacket</v>
-          </cell>
           <cell r="L9">
             <v>0</v>
           </cell>
@@ -25020,9 +24737,6 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="K10" t="str">
-            <v>GBF</v>
-          </cell>
           <cell r="L10">
             <v>0</v>
           </cell>
@@ -25073,9 +24787,6 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="K11" t="str">
-            <v>Transition piece</v>
-          </cell>
           <cell r="L11">
             <v>0</v>
           </cell>
@@ -25120,9 +24831,6 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="K12" t="str">
-            <v>Array cable</v>
-          </cell>
           <cell r="L12">
             <v>0</v>
           </cell>
@@ -25173,9 +24881,6 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="K13" t="str">
-            <v>Export cable</v>
-          </cell>
           <cell r="L13">
             <v>0</v>
           </cell>
@@ -25226,9 +24931,6 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="K14" t="str">
-            <v>Steel plates</v>
-          </cell>
           <cell r="L14">
             <v>0</v>
           </cell>
@@ -25276,9 +24978,6 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="K15" t="str">
-            <v>Casting</v>
-          </cell>
           <cell r="L15">
             <v>0</v>
           </cell>
@@ -25329,9 +25028,6 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="K16" t="str">
-            <v>Flange</v>
-          </cell>
           <cell r="L16">
             <v>0</v>
           </cell>
@@ -25382,9 +25078,6 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="K17" t="str">
-            <v>Semisubmersible</v>
-          </cell>
           <cell r="L17">
             <v>0</v>
           </cell>
@@ -25435,9 +25128,6 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="K18" t="str">
-            <v>Mooring System</v>
-          </cell>
           <cell r="L18">
             <v>0</v>
           </cell>
@@ -25543,50 +25233,8 @@
           <cell r="D2">
             <v>2022</v>
           </cell>
-          <cell r="E2">
-            <v>2023</v>
-          </cell>
-          <cell r="F2">
-            <v>2024</v>
-          </cell>
-          <cell r="G2">
-            <v>2025</v>
-          </cell>
-          <cell r="H2">
-            <v>2026</v>
-          </cell>
-          <cell r="I2">
-            <v>2027</v>
-          </cell>
-          <cell r="J2">
-            <v>2028</v>
-          </cell>
-          <cell r="K2">
-            <v>2029</v>
-          </cell>
-          <cell r="L2">
-            <v>2030</v>
-          </cell>
-          <cell r="M2">
-            <v>2031</v>
-          </cell>
-          <cell r="N2">
-            <v>2032</v>
-          </cell>
-          <cell r="O2">
-            <v>2033</v>
-          </cell>
-          <cell r="P2">
-            <v>2034</v>
-          </cell>
-          <cell r="Q2">
-            <v>2035</v>
-          </cell>
         </row>
         <row r="3">
-          <cell r="A3" t="str">
-            <v>Component (Direct Jobs)</v>
-          </cell>
           <cell r="B3">
             <v>235.4</v>
           </cell>
@@ -25636,101 +25284,9 @@
             <v>12139.750000000002</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Suppliers (Indirect Jobs, 25% Domestic Content)</v>
-          </cell>
-          <cell r="D4">
-            <v>126.82500000000002</v>
-          </cell>
-          <cell r="E4">
-            <v>539.83750000000009</v>
-          </cell>
-          <cell r="F4">
-            <v>1241.1000000000001</v>
-          </cell>
-          <cell r="G4">
-            <v>2453.8050000000003</v>
-          </cell>
-          <cell r="H4">
-            <v>3572.01</v>
-          </cell>
-          <cell r="I4">
-            <v>5123.8187499999995</v>
-          </cell>
-          <cell r="J4">
-            <v>6542.5524999999998</v>
-          </cell>
-          <cell r="K4">
-            <v>6870.2199999999993</v>
-          </cell>
-          <cell r="L4">
-            <v>9018.8937500000011</v>
-          </cell>
-          <cell r="M4">
-            <v>9148.3062499999996</v>
-          </cell>
-          <cell r="N4">
-            <v>10646.518750000001</v>
-          </cell>
-          <cell r="O4">
-            <v>12655.025</v>
-          </cell>
-          <cell r="P4">
-            <v>14023.824999999999</v>
-          </cell>
-          <cell r="Q4">
-            <v>14023.824999999999</v>
-          </cell>
-        </row>
         <row r="5">
-          <cell r="A5" t="str">
-            <v>Suppliers (Indirect Jobs, 100% Domestic Content)</v>
-          </cell>
           <cell r="B5">
             <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>507.30000000000007</v>
-          </cell>
-          <cell r="E5">
-            <v>2159.3500000000004</v>
-          </cell>
-          <cell r="F5">
-            <v>4964.4000000000005</v>
-          </cell>
-          <cell r="G5">
-            <v>9815.2200000000012</v>
-          </cell>
-          <cell r="H5">
-            <v>14288.04</v>
-          </cell>
-          <cell r="I5">
-            <v>20495.274999999998</v>
-          </cell>
-          <cell r="J5">
-            <v>26170.21</v>
-          </cell>
-          <cell r="K5">
-            <v>27480.879999999997</v>
-          </cell>
-          <cell r="L5">
-            <v>36075.575000000004</v>
-          </cell>
-          <cell r="M5">
-            <v>36593.224999999999</v>
-          </cell>
-          <cell r="N5">
-            <v>42586.075000000004</v>
-          </cell>
-          <cell r="O5">
-            <v>50620.1</v>
-          </cell>
-          <cell r="P5">
-            <v>56095.299999999996</v>
-          </cell>
-          <cell r="Q5">
-            <v>56095.299999999996</v>
           </cell>
         </row>
       </sheetData>
@@ -25739,50 +25295,8 @@
           <cell r="D2">
             <v>2022</v>
           </cell>
-          <cell r="E2">
-            <v>2023</v>
-          </cell>
-          <cell r="F2">
-            <v>2024</v>
-          </cell>
-          <cell r="G2">
-            <v>2025</v>
-          </cell>
-          <cell r="H2">
-            <v>2026</v>
-          </cell>
-          <cell r="I2">
-            <v>2027</v>
-          </cell>
-          <cell r="J2">
-            <v>2028</v>
-          </cell>
-          <cell r="K2">
-            <v>2029</v>
-          </cell>
-          <cell r="L2">
-            <v>2030</v>
-          </cell>
-          <cell r="M2">
-            <v>2031</v>
-          </cell>
-          <cell r="N2">
-            <v>2032</v>
-          </cell>
-          <cell r="O2">
-            <v>2033</v>
-          </cell>
-          <cell r="P2">
-            <v>2034</v>
-          </cell>
-          <cell r="Q2">
-            <v>2035</v>
-          </cell>
         </row>
         <row r="3">
-          <cell r="A3" t="str">
-            <v>Component (Direct Jobs)</v>
-          </cell>
           <cell r="B3">
             <v>235.4</v>
           </cell>
@@ -25832,57 +25346,7 @@
             <v>12139.750000000002</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Suppliers (Indirect Jobs, 25% Domestic Content)</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-          <cell r="E4">
-            <v>0</v>
-          </cell>
-          <cell r="F4">
-            <v>0</v>
-          </cell>
-          <cell r="G4">
-            <v>171.97499999999999</v>
-          </cell>
-          <cell r="H4">
-            <v>394.68</v>
-          </cell>
-          <cell r="I4">
-            <v>894.84500000000003</v>
-          </cell>
-          <cell r="J4">
-            <v>1515.5020000000002</v>
-          </cell>
-          <cell r="K4">
-            <v>2311.1590000000001</v>
-          </cell>
-          <cell r="L4">
-            <v>3642.2209999999995</v>
-          </cell>
-          <cell r="M4">
-            <v>4759.2840000000006</v>
-          </cell>
-          <cell r="N4">
-            <v>5712.4745000000003</v>
-          </cell>
-          <cell r="O4">
-            <v>6545.1730000000007</v>
-          </cell>
-          <cell r="P4">
-            <v>8547.0035000000007</v>
-          </cell>
-          <cell r="Q4">
-            <v>10229.691500000001</v>
-          </cell>
-        </row>
         <row r="5">
-          <cell r="A5" t="str">
-            <v>Suppliers (Indirect Jobs, 100% Domestic Content)</v>
-          </cell>
           <cell r="B5">
             <v>0</v>
           </cell>
@@ -25959,17 +25423,8 @@
           <cell r="B2" t="str">
             <v xml:space="preserve">Offshore specific capability </v>
           </cell>
-          <cell r="C2" t="str">
-            <v>Similar industries capacity</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>Proximity to conceptual facilities</v>
-          </cell>
         </row>
         <row r="3">
-          <cell r="A3" t="str">
-            <v>AL</v>
-          </cell>
           <cell r="B3">
             <v>5.1979188575404747</v>
           </cell>
@@ -25981,9 +25436,6 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="A4" t="str">
-            <v>AK</v>
-          </cell>
           <cell r="B4">
             <v>0.24609108792226456</v>
           </cell>
@@ -25995,9 +25447,6 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5" t="str">
-            <v>AZ</v>
-          </cell>
           <cell r="B5">
             <v>2.3208440955768181</v>
           </cell>
@@ -26009,9 +25458,6 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="A6" t="str">
-            <v>AR</v>
-          </cell>
           <cell r="B6">
             <v>2.5843919275028631</v>
           </cell>
@@ -26023,9 +25469,6 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="A7" t="str">
-            <v>CA</v>
-          </cell>
           <cell r="B7">
             <v>8.2570884429761389</v>
           </cell>
@@ -26037,9 +25480,6 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="A8" t="str">
-            <v>CO</v>
-          </cell>
           <cell r="B8">
             <v>1.8831100132301053</v>
           </cell>
@@ -26051,9 +25491,6 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="A9" t="str">
-            <v>CT</v>
-          </cell>
           <cell r="B9">
             <v>5.1511591440939908</v>
           </cell>
@@ -26065,9 +25502,6 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="A10" t="str">
-            <v>DE</v>
-          </cell>
           <cell r="B10">
             <v>1.6466332196997828</v>
           </cell>
@@ -26079,9 +25513,6 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11" t="str">
-            <v>FL</v>
-          </cell>
           <cell r="B11">
             <v>4.1431119937157312</v>
           </cell>
@@ -26093,9 +25524,6 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="A12" t="str">
-            <v>GA</v>
-          </cell>
           <cell r="B12">
             <v>4.6891849735349913</v>
           </cell>
@@ -26107,9 +25535,6 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="A13" t="str">
-            <v>HI</v>
-          </cell>
           <cell r="B13">
             <v>0.16743231698720995</v>
           </cell>
@@ -26121,9 +25546,6 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14" t="str">
-            <v>ID</v>
-          </cell>
           <cell r="B14">
             <v>0.26654223064699584</v>
           </cell>
@@ -26135,9 +25557,6 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="A15" t="str">
-            <v>IL</v>
-          </cell>
           <cell r="B15">
             <v>6.9543275293590217</v>
           </cell>
@@ -26149,9 +25568,6 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16" t="str">
-            <v>IN</v>
-          </cell>
           <cell r="B16">
             <v>4.0520032755182118</v>
           </cell>
@@ -26163,9 +25579,6 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="A17" t="str">
-            <v>IA</v>
-          </cell>
           <cell r="B17">
             <v>0.69178676745418521</v>
           </cell>
@@ -26177,9 +25590,6 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="A18" t="str">
-            <v>KS</v>
-          </cell>
           <cell r="B18">
             <v>1.3865497752933251</v>
           </cell>
@@ -26191,9 +25601,6 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19" t="str">
-            <v>KY</v>
-          </cell>
           <cell r="B19">
             <v>2.2942759768136325</v>
           </cell>
@@ -26205,9 +25612,6 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="A20" t="str">
-            <v>LA</v>
-          </cell>
           <cell r="B20">
             <v>5.6755548323909482</v>
           </cell>
@@ -26219,9 +25623,6 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="A21" t="str">
-            <v>ME</v>
-          </cell>
           <cell r="B21">
             <v>1.7764157099546003</v>
           </cell>
@@ -26233,9 +25634,6 @@
           </cell>
         </row>
         <row r="22">
-          <cell r="A22" t="str">
-            <v>MD</v>
-          </cell>
           <cell r="B22">
             <v>5.9579968601152569</v>
           </cell>
@@ -26247,9 +25645,6 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23" t="str">
-            <v>MA</v>
-          </cell>
           <cell r="B23">
             <v>12.600904311048282</v>
           </cell>
@@ -26261,9 +25656,6 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="A24" t="str">
-            <v>MI</v>
-          </cell>
           <cell r="B24">
             <v>2.86754544736664</v>
           </cell>
@@ -26275,9 +25667,6 @@
           </cell>
         </row>
         <row r="25">
-          <cell r="A25" t="str">
-            <v>MN</v>
-          </cell>
           <cell r="B25">
             <v>2.0303568891072299</v>
           </cell>
@@ -26289,9 +25678,6 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="A26" t="str">
-            <v>MS</v>
-          </cell>
           <cell r="B26">
             <v>1.157911389320313</v>
           </cell>
@@ -26303,9 +25689,6 @@
           </cell>
         </row>
         <row r="27">
-          <cell r="A27" t="str">
-            <v>MO</v>
-          </cell>
           <cell r="B27">
             <v>2.4181479859738282</v>
           </cell>
@@ -26317,9 +25700,6 @@
           </cell>
         </row>
         <row r="28">
-          <cell r="A28" t="str">
-            <v>MT</v>
-          </cell>
           <cell r="B28">
             <v>0.21198480665272831</v>
           </cell>
@@ -26331,9 +25711,6 @@
           </cell>
         </row>
         <row r="29">
-          <cell r="A29" t="str">
-            <v>NE</v>
-          </cell>
           <cell r="B29">
             <v>1.2860357621362715</v>
           </cell>
@@ -26345,9 +25722,6 @@
           </cell>
         </row>
         <row r="30">
-          <cell r="A30" t="str">
-            <v>NV</v>
-          </cell>
           <cell r="B30">
             <v>0.61596550644923764</v>
           </cell>
@@ -26359,9 +25733,6 @@
           </cell>
         </row>
         <row r="31">
-          <cell r="A31" t="str">
-            <v>NH</v>
-          </cell>
           <cell r="B31">
             <v>1.9820054939685843</v>
           </cell>
@@ -26373,9 +25744,6 @@
           </cell>
         </row>
         <row r="32">
-          <cell r="A32" t="str">
-            <v>NJ</v>
-          </cell>
           <cell r="B32">
             <v>8.7305043321761158</v>
           </cell>
@@ -26387,9 +25755,6 @@
           </cell>
         </row>
         <row r="33">
-          <cell r="A33" t="str">
-            <v>NM</v>
-          </cell>
           <cell r="B33">
             <v>0.17276980992088883</v>
           </cell>
@@ -26401,9 +25766,6 @@
           </cell>
         </row>
         <row r="34">
-          <cell r="A34" t="str">
-            <v>NY</v>
-          </cell>
           <cell r="B34">
             <v>12.697827612605723</v>
           </cell>
@@ -26415,9 +25777,6 @@
           </cell>
         </row>
         <row r="35">
-          <cell r="A35" t="str">
-            <v>NC</v>
-          </cell>
           <cell r="B35">
             <v>12.248120510337325</v>
           </cell>
@@ -26429,9 +25788,6 @@
           </cell>
         </row>
         <row r="36">
-          <cell r="A36" t="str">
-            <v>ND</v>
-          </cell>
           <cell r="B36">
             <v>0.40014843510192505</v>
           </cell>
@@ -26443,9 +25799,6 @@
           </cell>
         </row>
         <row r="37">
-          <cell r="A37" t="str">
-            <v>OH</v>
-          </cell>
           <cell r="B37">
             <v>7.4950304596236625</v>
           </cell>
@@ -26457,9 +25810,6 @@
           </cell>
         </row>
         <row r="38">
-          <cell r="A38" t="str">
-            <v>OK</v>
-          </cell>
           <cell r="B38">
             <v>2.5235980328036343</v>
           </cell>
@@ -26471,9 +25821,6 @@
           </cell>
         </row>
         <row r="39">
-          <cell r="A39" t="str">
-            <v>OR</v>
-          </cell>
           <cell r="B39">
             <v>2.635747686237484</v>
           </cell>
@@ -26485,9 +25832,6 @@
           </cell>
         </row>
         <row r="40">
-          <cell r="A40" t="str">
-            <v>PA</v>
-          </cell>
           <cell r="B40">
             <v>13.932508856861046</v>
           </cell>
@@ -26499,9 +25843,6 @@
           </cell>
         </row>
         <row r="41">
-          <cell r="A41" t="str">
-            <v>RI</v>
-          </cell>
           <cell r="B41">
             <v>1.9357669640795538</v>
           </cell>
@@ -26513,9 +25854,6 @@
           </cell>
         </row>
         <row r="42">
-          <cell r="A42" t="str">
-            <v>SC</v>
-          </cell>
           <cell r="B42">
             <v>6.5146682615631768</v>
           </cell>
@@ -26527,9 +25865,6 @@
           </cell>
         </row>
         <row r="43">
-          <cell r="A43" t="str">
-            <v>SD</v>
-          </cell>
           <cell r="B43">
             <v>0.1336727929725241</v>
           </cell>
@@ -26541,9 +25876,6 @@
           </cell>
         </row>
         <row r="44">
-          <cell r="A44" t="str">
-            <v>TN</v>
-          </cell>
           <cell r="B44">
             <v>3.5750074569920876</v>
           </cell>
@@ -26555,9 +25887,6 @@
           </cell>
         </row>
         <row r="45">
-          <cell r="A45" t="str">
-            <v>TX</v>
-          </cell>
           <cell r="B45">
             <v>21.718151444830859</v>
           </cell>
@@ -26569,9 +25898,6 @@
           </cell>
         </row>
         <row r="46">
-          <cell r="A46" t="str">
-            <v>UT</v>
-          </cell>
           <cell r="B46">
             <v>2.0866492253067057</v>
           </cell>
@@ -26583,9 +25909,6 @@
           </cell>
         </row>
         <row r="47">
-          <cell r="A47" t="str">
-            <v>VT</v>
-          </cell>
           <cell r="B47">
             <v>1.1780253193094299</v>
           </cell>
@@ -26597,9 +25920,6 @@
           </cell>
         </row>
         <row r="48">
-          <cell r="A48" t="str">
-            <v>VA</v>
-          </cell>
           <cell r="B48">
             <v>8.3887541704597677</v>
           </cell>
@@ -26611,9 +25931,6 @@
           </cell>
         </row>
         <row r="49">
-          <cell r="A49" t="str">
-            <v>WA</v>
-          </cell>
           <cell r="B49">
             <v>3.3369874360851974</v>
           </cell>
@@ -26625,9 +25942,6 @@
           </cell>
         </row>
         <row r="50">
-          <cell r="A50" t="str">
-            <v>WV</v>
-          </cell>
           <cell r="B50">
             <v>1.8802763621473204</v>
           </cell>
@@ -26639,9 +25953,6 @@
           </cell>
         </row>
         <row r="51">
-          <cell r="A51" t="str">
-            <v>WI</v>
-          </cell>
           <cell r="B51">
             <v>4.0157814996711378</v>
           </cell>
@@ -26653,9 +25964,6 @@
           </cell>
         </row>
         <row r="52">
-          <cell r="A52" t="str">
-            <v>WY</v>
-          </cell>
           <cell r="B52">
             <v>0.64953375375939648</v>
           </cell>
@@ -26811,38 +26119,6 @@
             <v>6.1589285714285721E-2</v>
           </cell>
         </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Quality and Safety</v>
-          </cell>
-          <cell r="B17">
-            <v>6.7351190476190481E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Factory-Level Management</v>
-          </cell>
-          <cell r="B18">
-            <v>6.9336309523809536E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Factory-Level Worker</v>
-          </cell>
-          <cell r="B19">
-            <v>0.654092261904762</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Facilities Maintenance</v>
-          </cell>
-          <cell r="B20">
-            <v>9.3166666666666675E-2</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
@@ -26862,19 +26138,6 @@
       <sheetData sheetId="18" refreshError="1"/>
       <sheetData sheetId="19" refreshError="1"/>
       <sheetData sheetId="20" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="High-Low State Chart (NC) (2)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -27182,23 +26445,23 @@
   </sheetPr>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2020</v>
       </c>
@@ -27248,7 +26511,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -27302,7 +26565,7 @@
         <v>12139.750000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -27374,33 +26637,33 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>2020</v>
       </c>
@@ -27450,7 +26713,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>70</v>
       </c>
@@ -27504,7 +26767,7 @@
         <v>1680.0959999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>71</v>
       </c>
@@ -27557,7 +26820,7 @@
         <v>8760.3200000000015</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>72</v>
       </c>
@@ -27610,7 +26873,7 @@
         <v>2810.0999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>73</v>
       </c>
@@ -27663,7 +26926,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>74</v>
       </c>
@@ -27716,7 +26979,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>75</v>
       </c>
@@ -27769,7 +27032,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>76</v>
       </c>
@@ -27822,7 +27085,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>77</v>
       </c>
@@ -27875,7 +27138,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>78</v>
       </c>
@@ -27928,7 +27191,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>79</v>
       </c>
@@ -27981,7 +27244,7 @@
         <v>1826.2800000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>80</v>
       </c>
@@ -28034,7 +27297,7 @@
         <v>1299.2</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>81</v>
       </c>
@@ -28087,7 +27350,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>82</v>
       </c>
@@ -28140,7 +27403,7 @@
         <v>3002.3700000000003</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>93</v>
       </c>
@@ -28193,7 +27456,7 @@
         <v>5672.4</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>85</v>
       </c>
@@ -28263,24 +27526,24 @@
       <selection activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6:Y6">'[1]Suppliers (Indirect Jobs) (N)'!B168:Y168</f>
         <v>Blades</v>
@@ -28355,7 +27618,7 @@
         <v>Suction Caissons</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -28433,7 +27696,7 @@
         <v>827.91169811320776</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -28511,7 +27774,7 @@
         <v>1635.6067434881995</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -28606,22 +27869,22 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="str" cm="1">
         <f t="array" ref="A5:A9">_xlfn.ANCHORARRAY('[2]Workforce Skills Assessment'!A16)</f>
         <v>Design and Engineering</v>
@@ -28631,7 +27894,7 @@
         <v>6.1589285714285721E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <v>Quality and Safety</v>
       </c>
@@ -28639,7 +27902,7 @@
         <v>6.7351190476190481E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <v>Factory-Level Management</v>
       </c>
@@ -28647,7 +27910,7 @@
         <v>6.9336309523809536E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <v>Factory-Level Worker</v>
       </c>
@@ -28655,7 +27918,7 @@
         <v>0.654092261904762</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <v>Facilities Maintenance</v>
       </c>
@@ -28680,24 +27943,24 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6">
         <f>'[1]Direct Jobs Over Time Chart (A)'!L8</f>
         <v>2020</v>
@@ -28763,7 +28026,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -28817,7 +28080,7 @@
         <v>12139.750000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -28888,24 +28151,24 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6">
         <f>'[1]Direct Jobs Over Time Chart (A)'!L8</f>
         <v>2020</v>
@@ -28971,7 +28234,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -29025,7 +28288,7 @@
         <v>12139.750000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -29092,23 +28355,23 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -29122,7 +28385,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -29139,7 +28402,7 @@
         <v>6.9191534620441093</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -29153,7 +28416,7 @@
         <v>1.6914918522319637</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -29167,7 +28430,7 @@
         <v>3.6839341554728753</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -29181,7 +28444,7 @@
         <v>4.2162947767854559</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -29195,7 +28458,7 @@
         <v>13.019752347866536</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -29209,7 +28472,7 @@
         <v>6.6911878995895586</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -29223,7 +28486,7 @@
         <v>11.500631744120332</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -29237,7 +28500,7 @@
         <v>4.9646778617077896</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -29251,7 +28514,7 @@
         <v>7.4586994168202452</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -29265,7 +28528,7 @@
         <v>7.744162078543587</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -29279,7 +28542,7 @@
         <v>1.224289522585057</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -29293,7 +28556,7 @@
         <v>1.9384161560271829</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -29307,7 +28570,7 @@
         <v>6.6598584391608551</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -29321,7 +28584,7 @@
         <v>9.1670309383156798</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -29335,7 +28598,7 @@
         <v>3.1793738828049154</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -29349,7 +28612,7 @@
         <v>2.3478442650442921</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -29363,7 +28626,7 @@
         <v>6.5404729985450958</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -29377,7 +28640,7 @@
         <v>4.5614735622670937</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -29391,7 +28654,7 @@
         <v>6.6973471274608176</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -29405,7 +28668,7 @@
         <v>6.9564175402704258</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -29419,7 +28682,7 @@
         <v>10.348631353120432</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -29433,7 +28696,7 @@
         <v>11.623185660917072</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -29447,7 +28710,7 @@
         <v>7.0318884478668302</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -29461,7 +28724,7 @@
         <v>2.9461520818972264</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -29475,7 +28738,7 @@
         <v>2.717247111415134</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -29489,7 +28752,7 @@
         <v>1.5153606286260459</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -29503,7 +28766,7 @@
         <v>1.9770674173441494</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -29517,7 +28780,7 @@
         <v>3.8098663570279152</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -29531,7 +28794,7 @@
         <v>9.0140646497741752</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -29545,7 +28808,7 @@
         <v>8.5844050750498084</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -29559,7 +28822,7 @@
         <v>1.2755080400616712</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -29573,7 +28836,7 @@
         <v>9.9686830196829401</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -29587,7 +28850,7 @@
         <v>12.395422657104703</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -29601,7 +28864,7 @@
         <v>1.6372872515018559</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -29615,7 +28878,7 @@
         <v>12.79293407688019</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -29629,7 +28892,7 @@
         <v>5.9445395556996408</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -29643,7 +28906,7 @@
         <v>6.2144164061841574</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -29657,7 +28920,7 @@
         <v>13.106967796058147</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -29671,7 +28934,7 @@
         <v>7.4262785364031245</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -29685,7 +28948,7 @@
         <v>11.360443785201999</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -29699,7 +28962,7 @@
         <v>1.6314133135922062</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -29713,7 +28976,7 @@
         <v>7.7889306878644282</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -29727,7 +28990,7 @@
         <v>12.398032982140277</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -29741,7 +29004,7 @@
         <v>6.793033293860872</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -29755,7 +29018,7 @@
         <v>6.4970891746701325</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -29769,7 +29032,7 @@
         <v>9.3955567599315817</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -29783,7 +29046,7 @@
         <v>5.9213636596353432</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -29797,7 +29060,7 @@
         <v>5.9423381630299499</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -29811,7 +29074,7 @@
         <v>9.0180521853056668</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -29843,19 +29106,19 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -30007,7 +29270,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -30163,7 +29426,7 @@
         <v>82.511618594619449</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -30319,7 +29582,7 @@
         <v>1157.5614899308114</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -30492,28 +29755,28 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C6">
         <v>2020</v>
       </c>
@@ -30563,7 +29826,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>70</v>
       </c>
@@ -30617,7 +29880,7 @@
         <v>2499.6999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>71</v>
       </c>
@@ -30670,7 +29933,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>72</v>
       </c>
@@ -30723,7 +29986,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -30776,7 +30039,7 @@
         <v>1393.1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>74</v>
       </c>
@@ -30829,7 +30092,7 @@
         <v>555.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>75</v>
       </c>
@@ -30882,7 +30145,7 @@
         <v>313.75</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>76</v>
       </c>
@@ -30935,7 +30198,7 @@
         <v>581.65000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>77</v>
       </c>
@@ -30988,7 +30251,7 @@
         <v>461.20000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>78</v>
       </c>
@@ -31041,7 +30304,7 @@
         <v>941.6</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>79</v>
       </c>
@@ -31094,7 +30357,7 @@
         <v>910.2</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>80</v>
       </c>
@@ -31147,7 +30410,7 @@
         <v>106.19999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>81</v>
       </c>
@@ -31200,7 +30463,7 @@
         <v>186.95</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>82</v>
       </c>
@@ -31253,7 +30516,7 @@
         <v>1409.1</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>83</v>
       </c>
@@ -31306,7 +30569,7 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>84</v>
       </c>
@@ -31359,7 +30622,7 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>85</v>
       </c>
@@ -31429,28 +30692,28 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C6">
         <v>2020</v>
       </c>
@@ -31500,7 +30763,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>70</v>
       </c>
@@ -31554,7 +30817,7 @@
         <v>2499.6999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>71</v>
       </c>
@@ -31607,7 +30870,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>72</v>
       </c>
@@ -31660,7 +30923,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -31713,7 +30976,7 @@
         <v>1393.1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>74</v>
       </c>
@@ -31766,7 +31029,7 @@
         <v>555.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>75</v>
       </c>
@@ -31819,7 +31082,7 @@
         <v>313.75</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>76</v>
       </c>
@@ -31872,7 +31135,7 @@
         <v>581.65000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>77</v>
       </c>
@@ -31925,7 +31188,7 @@
         <v>461.20000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>78</v>
       </c>
@@ -31978,7 +31241,7 @@
         <v>941.6</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>79</v>
       </c>
@@ -32031,7 +31294,7 @@
         <v>910.2</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>80</v>
       </c>
@@ -32084,7 +31347,7 @@
         <v>106.19999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>81</v>
       </c>
@@ -32137,7 +31400,7 @@
         <v>186.95</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>82</v>
       </c>
@@ -32190,7 +31453,7 @@
         <v>1409.1</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>87</v>
       </c>
@@ -32243,7 +31506,7 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>88</v>
       </c>
@@ -32296,7 +31559,7 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>85</v>
       </c>
@@ -32366,33 +31629,33 @@
       <selection activeCell="X80" sqref="X80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="3" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>2020</v>
       </c>
@@ -32442,7 +31705,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -32496,7 +31759,7 @@
         <v>1909.1999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -32549,7 +31812,7 @@
         <v>21900.800000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -32602,7 +31865,7 @@
         <v>2957.9999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -32655,7 +31918,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -32708,7 +31971,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -32761,7 +32024,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -32814,7 +32077,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -32867,7 +32130,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -32920,7 +32183,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -32973,7 +32236,7 @@
         <v>2029.2000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -33026,7 +32289,7 @@
         <v>1299.2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -33079,7 +32342,7 @@
         <v>620.6</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -33132,7 +32395,7 @@
         <v>3105.9000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -33185,7 +32448,7 @@
         <v>5672.4</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -33451,15 +32714,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="69ca3097-9b02-4c7e-a53c-44fd75dac719">
@@ -33468,6 +32722,15 @@
     <TaxCatchAll xmlns="9d243334-91b0-49f8-80ba-e6cbe787c2a1" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33490,14 +32753,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AA994C4-7FB4-44A4-9942-26B364BD1590}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FD7AAD0-4E48-467A-B7CB-0643A2E01611}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -33512,4 +32767,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AA994C4-7FB4-44A4-9942-26B364BD1590}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>